--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shell\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B661D7-A5E3-4926-9814-58D8A8E35322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673BEA44-06E3-4412-9D97-67875AC7F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="101">
   <si>
     <t>Asset</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Brenton</t>
-  </si>
-  <si>
-    <t>Gun Attack</t>
   </si>
   <si>
     <t>Implement a limited gun fire rate (ideally adjustable per weapon), limited bullets, reload</t>
@@ -212,6 +209,138 @@
   </si>
   <si>
     <t>While talking to an NPC, the Player can not fire their gun or move. They are invulnerable to attack.</t>
+  </si>
+  <si>
+    <t>Healing Carrot Powerup</t>
+  </si>
+  <si>
+    <t>Enemies Give Up</t>
+  </si>
+  <si>
+    <t>After the Player gets a certain distance from an aggroed enemy, the enemy stops pursuing them.</t>
+  </si>
+  <si>
+    <t>A carrot growing from the ground that the Player can press 'E' on to consume, giving them 1 heart.</t>
+  </si>
+  <si>
+    <t>Slingshot Weapon</t>
+  </si>
+  <si>
+    <t>A new ranged weapon type added to the game. Hold to aim and release to fire, has a short range.</t>
+  </si>
+  <si>
+    <t>Slingshot weapon is now the starting weapon instead of the revolver.</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>An inventory system where items can be picked up and then equipped.</t>
+  </si>
+  <si>
+    <t>Revolver item pickup</t>
+  </si>
+  <si>
+    <t>The revolver is an item that can be found, picked up, and then equipped.</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>Bullet Bunny Shoot</t>
+  </si>
+  <si>
+    <t>Bullet Bunny Aggro</t>
+  </si>
+  <si>
+    <t>A shooting sound for the bullet bunnies, so that the Player can tell when one is shooting at them from afar.</t>
+  </si>
+  <si>
+    <t>A monster grunt/squeak-ish sound for when a bullet bunny becomes aggroed to the Player.</t>
+  </si>
+  <si>
+    <t>Bear Bunny Aggro</t>
+  </si>
+  <si>
+    <t>Bear Bunny Attack</t>
+  </si>
+  <si>
+    <t>A monster growl sound when the bear bunny spots the Player.</t>
+  </si>
+  <si>
+    <t>A monster growl/grunt when the bear bunny does its melee attack.</t>
+  </si>
+  <si>
+    <t>Slime wet sounds that play as it moves.</t>
+  </si>
+  <si>
+    <t>Slime move sounds</t>
+  </si>
+  <si>
+    <t>Green Fields Music</t>
+  </si>
+  <si>
+    <t>A looping track for the Fields area, that relatively cheerful.</t>
+  </si>
+  <si>
+    <t>Bunnyville House</t>
+  </si>
+  <si>
+    <t>Art of a house in Bunnyville.</t>
+  </si>
+  <si>
+    <t>UI interaction / Click</t>
+  </si>
+  <si>
+    <t>Click sound for interacting with UI. Not very high pitched, kind of a wood sound.</t>
+  </si>
+  <si>
+    <t>Revolver item art</t>
+  </si>
+  <si>
+    <t>Slingshot item art</t>
+  </si>
+  <si>
+    <t>Carrot Powerup Art</t>
+  </si>
+  <si>
+    <t>Art for the revolver weapon.</t>
+  </si>
+  <si>
+    <t>Art for the slingshot weapon.</t>
+  </si>
+  <si>
+    <t>Art for the carrot powerup. Grows from the ground.</t>
+  </si>
+  <si>
+    <t>UI Buttons</t>
+  </si>
+  <si>
+    <t>UI Text Display</t>
+  </si>
+  <si>
+    <t>UI art for the buttons on the menus and dialogue screens.</t>
+  </si>
+  <si>
+    <t>UI art for text boxes - instructions, dialogue, inventory, etc.</t>
+  </si>
+  <si>
+    <t>Title Art for Main Menu</t>
+  </si>
+  <si>
+    <t>Title art for Carrot Quest: The Root of Evil. Incorporate carrot/bunny/woodsy elements.</t>
+  </si>
+  <si>
+    <t>Player death animation. Falls to floor.</t>
+  </si>
+  <si>
+    <t>Gun Attack Fire Rate</t>
+  </si>
+  <si>
+    <t>Enemy Bullets Slower</t>
+  </si>
+  <si>
+    <t>Enemy bullets slower, more distinct color. Better chance for Player to dodge.</t>
   </si>
 </sst>
 </file>
@@ -278,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +432,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEC8EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,23 +484,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -382,6 +532,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDEC8EE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,8 +549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H43" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:H43" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H59" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:H59" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{AF7E0E7C-2284-413F-AB2C-E63BCFCC2C85}" name="Department"/>
     <tableColumn id="1" xr3:uid="{4F89ED6B-F192-4EF7-BB55-9FBCF02369DF}" name="Asset"/>
@@ -706,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +872,7 @@
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="85.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
@@ -727,15 +882,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -759,18 +914,18 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
@@ -790,13 +945,13 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
@@ -816,13 +971,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
@@ -842,7 +997,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
@@ -865,7 +1020,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
@@ -888,7 +1043,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
@@ -911,7 +1066,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
@@ -934,7 +1089,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -957,7 +1112,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -980,7 +1135,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
@@ -1003,7 +1158,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
@@ -1026,7 +1181,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
@@ -1049,7 +1204,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -1072,7 +1227,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
@@ -1095,7 +1250,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
@@ -1118,7 +1273,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
@@ -1141,7 +1296,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
@@ -1164,7 +1319,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
@@ -1187,7 +1342,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
@@ -1210,7 +1365,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
@@ -1233,296 +1388,773 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D33" t="s">
         <v>42</v>
       </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
         <v>7</v>
       </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D38" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
         <v>12</v>
       </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
         <v>13</v>
       </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
         <v>15</v>
       </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="11"/>
+      <c r="H59" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolff\OneDrive\Documents\DarkRootV3\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673BEA44-06E3-4412-9D97-67875AC7F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91822C13-71D4-4434-83A2-DAD70061065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="103">
   <si>
     <t>Asset</t>
   </si>
@@ -341,6 +330,12 @@
   </si>
   <si>
     <t>Enemy bullets slower, more distinct color. Better chance for Player to dodge.</t>
+  </si>
+  <si>
+    <t>Ultimate Carrot Cannon</t>
+  </si>
+  <si>
+    <t>The end game weapon, Carrot Quest's master sword. A sacred weapon</t>
   </si>
 </sst>
 </file>
@@ -497,13 +492,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -549,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H59" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:H59" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:H61" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{AF7E0E7C-2284-413F-AB2C-E63BCFCC2C85}" name="Department"/>
     <tableColumn id="1" xr3:uid="{4F89ED6B-F192-4EF7-BB55-9FBCF02369DF}" name="Asset"/>
@@ -861,38 +856,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="85.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="85.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -918,8 +913,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -944,8 +939,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
@@ -970,8 +965,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
@@ -996,8 +991,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
@@ -1019,8 +1014,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
@@ -1042,8 +1037,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
@@ -1065,8 +1060,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
@@ -1088,8 +1083,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -1111,8 +1106,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -1134,8 +1129,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
@@ -1157,8 +1152,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
@@ -1180,8 +1175,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
@@ -1203,8 +1198,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -1226,8 +1221,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
@@ -1249,8 +1244,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
@@ -1272,8 +1267,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
@@ -1295,8 +1290,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
@@ -1318,8 +1313,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
@@ -1341,8 +1336,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
@@ -1364,8 +1359,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
@@ -1387,8 +1382,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
@@ -1410,8 +1405,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -1433,8 +1428,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
@@ -1456,8 +1451,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
@@ -1479,8 +1474,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -1502,8 +1497,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -1525,8 +1520,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
@@ -1548,8 +1543,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
@@ -1571,11 +1566,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
@@ -1597,8 +1592,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
@@ -1620,8 +1615,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
@@ -1643,8 +1638,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
@@ -1666,8 +1661,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="2:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
@@ -1689,8 +1684,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
@@ -1712,8 +1707,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
@@ -1735,8 +1730,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
@@ -1758,8 +1753,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -1781,8 +1776,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
@@ -1804,8 +1799,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C43" t="s">
@@ -1827,8 +1822,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C44" t="s">
@@ -1850,8 +1845,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C45" t="s">
@@ -1873,8 +1868,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C46" t="s">
@@ -1896,8 +1891,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C47" t="s">
@@ -1919,21 +1914,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -1942,110 +1937,104 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="11" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>69</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>71</v>
       </c>
-      <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
         <v>9</v>
       </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>70</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>72</v>
       </c>
-      <c r="E51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
         <v>9</v>
       </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>73</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>75</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
@@ -2054,27 +2043,27 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
@@ -2083,8 +2072,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C56" t="s">
@@ -2097,7 +2086,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -2106,38 +2095,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
         <v>78</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>77</v>
-      </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>84</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
@@ -2152,9 +2141,55 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="11"/>
-      <c r="H59" s="2"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="10"/>
+      <c r="H61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673BEA44-06E3-4412-9D97-67875AC7F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A07CDB-A2E6-40AD-8538-4876A9609FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="104">
   <si>
     <t>Asset</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Enemy bullets slower, more distinct color. Better chance for Player to dodge.</t>
+  </si>
+  <si>
+    <t>Slingshot fire sound</t>
+  </si>
+  <si>
+    <t>Twang of a slingshot shooting.</t>
+  </si>
+  <si>
+    <t>When near a burrow entrance or exit, press 'E' to travel through the burrow to the other side.</t>
   </si>
 </sst>
 </file>
@@ -497,13 +506,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -863,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,15 +891,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -919,7 +928,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -945,7 +954,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
@@ -971,7 +980,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
@@ -997,7 +1006,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
@@ -1020,7 +1029,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
@@ -1043,7 +1052,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
@@ -1066,7 +1075,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
@@ -1089,7 +1098,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -1112,7 +1121,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
@@ -1158,7 +1167,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
@@ -1181,7 +1190,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
@@ -1204,7 +1213,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -1227,7 +1236,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
@@ -1250,7 +1259,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
@@ -1273,7 +1282,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
@@ -1296,7 +1305,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
@@ -1319,7 +1328,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
@@ -1342,7 +1351,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
@@ -1365,7 +1374,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
@@ -1388,7 +1397,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
@@ -1411,7 +1420,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -1434,7 +1443,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
@@ -1457,7 +1466,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
@@ -1480,7 +1489,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -1503,7 +1512,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -1526,7 +1535,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
@@ -1549,7 +1558,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
@@ -1572,10 +1581,10 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="12"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
@@ -1598,7 +1607,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
@@ -1621,7 +1630,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
@@ -1644,7 +1653,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
@@ -1667,7 +1676,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
@@ -1690,7 +1699,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
@@ -1712,38 +1721,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -1758,15 +1767,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1782,37 +1791,37 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>60</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
       </c>
       <c r="E43" t="s">
         <v>43</v>
@@ -1821,44 +1830,44 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
       <c r="H44" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -1874,37 +1883,37 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
         <v>64</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>65</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>67</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
@@ -1920,63 +1929,63 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
         <v>99</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>100</v>
       </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="12"/>
+      <c r="H49" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="11" t="s">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>69</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>71</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" t="s">
-        <v>72</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
@@ -1992,37 +2001,37 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
         <v>73</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>75</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
@@ -2038,14 +2047,14 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
@@ -2054,67 +2063,67 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
+      <c r="H55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>79</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>80</v>
       </c>
-      <c r="E55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
         <v>13</v>
       </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
@@ -2130,7 +2139,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C58" t="s">
@@ -2153,7 +2162,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="11"/>
+      <c r="B59" s="10"/>
       <c r="H59" s="2"/>
     </row>
   </sheetData>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A07CDB-A2E6-40AD-8538-4876A9609FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC4444-2A0E-40BF-88AF-78DBAB218D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="123">
   <si>
     <t>Asset</t>
   </si>
@@ -350,6 +350,64 @@
   </si>
   <si>
     <t>When near a burrow entrance or exit, press 'E' to travel through the burrow to the other side.</t>
+  </si>
+  <si>
+    <t>Reload Text</t>
+  </si>
+  <si>
+    <t>A UI text element that is relatively small at top or bottom of screen. Says "Press 'R' to reload" when the 
+player runs out of bullets. Flashes gently or draws the eye in some other way.</t>
+  </si>
+  <si>
+    <t>Reload Necessary</t>
+  </si>
+  <si>
+    <t>A sound like trying to fire a gun with no bullets in the chamber. A click type sound.</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>The sound of a gun being reloaded.</t>
+  </si>
+  <si>
+    <t>Gunfire</t>
+  </si>
+  <si>
+    <t>Shooting sounds for the player's revolver. Should not be too annoying / grating to hear.</t>
+  </si>
+  <si>
+    <t>Sword slash</t>
+  </si>
+  <si>
+    <t>A 'whoosh' short of slashing sound for when a melee weapon is swung.</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <t>Fix up Game Design Document.</t>
+  </si>
+  <si>
+    <t>Level 1 Layout design</t>
+  </si>
+  <si>
+    <t>Layout for obstacles and enemies in level 1. Major scene elements included in the layout as well.</t>
+  </si>
+  <si>
+    <t>Level 2 Layout design</t>
+  </si>
+  <si>
+    <t>Level 3 Layout design</t>
+  </si>
+  <si>
+    <t>Layout for obstacles and enemies in level 2. Major scene elements included in the layout as well.</t>
+  </si>
+  <si>
+    <t>Layout for obstacles and enemies in level 3. Major scene elements included in the layout as well.</t>
   </si>
 </sst>
 </file>
@@ -416,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +520,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -493,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -513,6 +577,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -558,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H59" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:H59" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H69" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:H69" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{AF7E0E7C-2284-413F-AB2C-E63BCFCC2C85}" name="Department"/>
     <tableColumn id="1" xr3:uid="{4F89ED6B-F192-4EF7-BB55-9FBCF02369DF}" name="Asset"/>
@@ -870,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +950,7 @@
     <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="11" max="11" width="11.109375" customWidth="1"/>
@@ -1600,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
@@ -1625,8 +1691,8 @@
       <c r="G34" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
+      <c r="H34" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -1648,19 +1714,19 @@
       <c r="G35" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
+        <v>104</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -1680,16 +1746,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
         <v>22</v>
@@ -1698,15 +1764,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="D38" t="s">
-        <v>50</v>
+      <c r="D38" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1729,7 +1795,7 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1744,21 +1810,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
         <v>22</v>
@@ -1772,10 +1838,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1790,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
@@ -1798,7 +1864,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -1818,16 +1884,16 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E43" t="s">
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
         <v>22</v>
@@ -1841,10 +1907,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
@@ -1853,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>18</v>
@@ -1864,19 +1930,19 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>18</v>
@@ -1890,7 +1956,7 @@
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -1910,16 +1976,16 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
@@ -1933,10 +1999,10 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>43</v>
@@ -1956,59 +2022,59 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
         <v>99</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>100</v>
       </c>
-      <c r="E49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
         <v>15</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H50" s="11"/>
+      <c r="H50" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
         <v>43</v>
@@ -2028,16 +2094,16 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -2051,16 +2117,16 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
@@ -2074,19 +2140,19 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>18</v>
@@ -2097,16 +2163,16 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
@@ -2120,19 +2186,19 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>18</v>
@@ -2143,27 +2209,242 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
         <v>83</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>84</v>
       </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
         <v>15</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G63" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
-      <c r="H59" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC4444-2A0E-40BF-88AF-78DBAB218D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B20971-7438-4DA7-9B88-B405D10A49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="124">
   <si>
     <t>Asset</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Layout for obstacles and enemies in level 3. Major scene elements included in the layout as well.</t>
+  </si>
+  <si>
+    <t>Incomplete 80%</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -574,11 +577,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -938,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
   <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,15 +959,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1012,8 +1014,8 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -1038,8 +1040,8 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
@@ -1064,8 +1066,8 @@
       <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>21</v>
@@ -1619,8 +1621,8 @@
       <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -2343,52 +2345,45 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
       <c r="H64" s="11"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="13" t="s">
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
+      <c r="F66" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -2396,20 +2391,19 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13" t="s">
+      <c r="F67" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -2417,20 +2411,19 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13" t="s">
+      <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -2438,12 +2431,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="14"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
+      <c r="B69" s="12"/>
       <c r="H69" s="2"/>
     </row>
   </sheetData>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B20971-7438-4DA7-9B88-B405D10A49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532771C8-3A5B-405B-AAFA-CB22E027A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="124">
   <si>
     <t>Asset</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
   </si>
   <si>
     <t>Week 8</t>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Incomplete 80%</t>
+  </si>
+  <si>
+    <t>On Hold</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -992,660 +992,660 @@
         <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -1653,416 +1653,416 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
         <v>58</v>
       </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
         <v>61</v>
       </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
         <v>64</v>
       </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
         <v>66</v>
       </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="D50" t="s">
-        <v>100</v>
-      </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -2070,278 +2070,278 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
-        <v>69</v>
-      </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
         <v>110</v>
       </c>
-      <c r="D54" t="s">
-        <v>111</v>
-      </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
         <v>106</v>
       </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
         <v>108</v>
       </c>
-      <c r="D56" t="s">
-        <v>109</v>
-      </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
         <v>112</v>
       </c>
-      <c r="D57" t="s">
-        <v>113</v>
-      </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
         <v>79</v>
       </c>
-      <c r="D61" t="s">
-        <v>80</v>
-      </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
         <v>101</v>
       </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
         <v>83</v>
       </c>
-      <c r="D63" t="s">
-        <v>84</v>
-      </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
@@ -2349,85 +2349,82 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
         <v>114</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>115</v>
-      </c>
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
         <v>117</v>
       </c>
-      <c r="D66" t="s">
-        <v>118</v>
-      </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FroggyChainsaw\Documents\GitHub\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532771C8-3A5B-405B-AAFA-CB22E027A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE4056-4F84-4EA7-AA30-D55788D48D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="123">
   <si>
     <t>Asset</t>
   </si>
@@ -407,10 +407,7 @@
     <t>Layout for obstacles and enemies in level 3. Major scene elements included in the layout as well.</t>
   </si>
   <si>
-    <t>Incomplete 80%</t>
-  </si>
-  <si>
-    <t>On Hold</t>
+    <t>Complete 80%</t>
   </si>
 </sst>
 </file>
@@ -560,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -581,6 +578,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -940,25 +938,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
   <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="85.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="85.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
@@ -969,7 +967,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -995,7 +993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
@@ -1648,10 +1646,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1670,11 +1668,11 @@
       <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
@@ -1697,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
@@ -1763,10 +1761,10 @@
         <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>39</v>
       </c>
@@ -1858,7 +1856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>39</v>
       </c>
@@ -1881,7 +1879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>39</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>39</v>
       </c>
@@ -2042,7 +2040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>39</v>
       </c>
@@ -2065,10 +2063,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>67</v>
       </c>
@@ -2137,7 +2135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>67</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>67</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>67</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
@@ -2252,7 +2250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>67</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>67</v>
       </c>
@@ -2321,7 +2319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -2344,10 +2342,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>113</v>
       </c>
@@ -2363,11 +2361,11 @@
       <c r="G65" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>113</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>113</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>113</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
       <c r="H69" s="2"/>
     </row>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FroggyChainsaw\Documents\GitHub\DarkRoot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE4056-4F84-4EA7-AA30-D55788D48D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E68D20-556A-445F-8D0E-AD3627FBA982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="129">
   <si>
     <t>Asset</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>Complete 80%</t>
+  </si>
+  <si>
+    <t>ON HOLD</t>
+  </si>
+  <si>
+    <t>Incomplete 80%</t>
+  </si>
+  <si>
+    <t>Currently auto-pickup instead of press E</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Incomplete 99%</t>
+  </si>
+  <si>
+    <t>This used to work but now doesn't?</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +544,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -557,7 +581,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -575,10 +599,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -609,6 +634,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFBB779"/>
+      <color rgb="FFFFDE75"/>
       <color rgb="FFDEC8EE"/>
     </mruColors>
   </colors>
@@ -624,9 +651,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H69" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:H69" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:I69" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:I69" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
+  <tableColumns count="8">
     <tableColumn id="13" xr3:uid="{AF7E0E7C-2284-413F-AB2C-E63BCFCC2C85}" name="Department"/>
     <tableColumn id="1" xr3:uid="{4F89ED6B-F192-4EF7-BB55-9FBCF02369DF}" name="Asset"/>
     <tableColumn id="2" xr3:uid="{EDE03673-BD30-4FF7-B06B-A15B43AFBEE4}" name="Task"/>
@@ -634,6 +661,7 @@
     <tableColumn id="4" xr3:uid="{052CDE0A-BEBF-4108-8152-B47C430A4FED}" name="Due"/>
     <tableColumn id="5" xr3:uid="{A5F33B29-DA99-4349-8327-5E8371464113}" name="Priority"/>
     <tableColumn id="6" xr3:uid="{9AF1C154-CE0B-4738-A496-995DBF943D11}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{E492A22D-4DD5-420C-85B7-44777415B9B5}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,36 +966,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
   <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="85.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="85.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -989,11 +1017,14 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1090,11 +1121,11 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1113,11 +1144,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1136,11 +1167,11 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1159,11 +1190,11 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1180,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1205,11 +1236,11 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1228,11 +1259,11 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1251,11 +1282,11 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1272,13 +1303,13 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1297,11 +1328,11 @@
       <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1320,11 +1351,11 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1343,11 +1374,11 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1366,11 +1397,11 @@
       <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1389,11 +1420,11 @@
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1412,11 +1443,11 @@
       <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1435,11 +1466,11 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1458,11 +1489,11 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1481,11 +1512,11 @@
       <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1531,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1554,7 +1585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1573,11 +1604,11 @@
       <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
@@ -1596,11 +1627,11 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
@@ -1642,14 +1673,14 @@
       <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1668,11 +1699,11 @@
       <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
@@ -1695,7 +1726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
@@ -1718,7 +1749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1741,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
@@ -1764,7 +1795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
@@ -1783,11 +1814,11 @@
       <c r="G38" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1806,11 +1837,11 @@
       <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
@@ -1829,11 +1860,11 @@
       <c r="G40" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>39</v>
       </c>
@@ -1853,10 +1884,10 @@
         <v>21</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>39</v>
       </c>
@@ -1879,7 +1910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>39</v>
       </c>
@@ -1922,10 +1953,13 @@
         <v>21</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
@@ -1948,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
@@ -1971,7 +2005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>39</v>
       </c>
@@ -1994,7 +2028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>39</v>
       </c>
@@ -2017,7 +2051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>39</v>
       </c>
@@ -2040,7 +2074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>39</v>
       </c>
@@ -2063,10 +2097,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
@@ -2089,7 +2123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
@@ -2106,13 +2140,13 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>67</v>
       </c>
@@ -2132,10 +2166,13 @@
         <v>21</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="I54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>67</v>
       </c>
@@ -2158,7 +2195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
@@ -2181,7 +2218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>67</v>
       </c>
@@ -2204,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>67</v>
       </c>
@@ -2221,13 +2258,13 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
@@ -2244,13 +2281,13 @@
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2273,7 +2310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>67</v>
       </c>
@@ -2296,7 +2333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>67</v>
       </c>
@@ -2319,7 +2356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -2342,10 +2379,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>113</v>
       </c>
@@ -2361,11 +2398,11 @@
       <c r="G65" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>113</v>
       </c>
@@ -2381,11 +2418,11 @@
       <c r="G66" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>113</v>
       </c>
@@ -2401,11 +2438,11 @@
       <c r="G67" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>113</v>
       </c>
@@ -2421,11 +2458,11 @@
       <c r="G68" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="12"/>
       <c r="H69" s="2"/>
     </row>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FroggyChainsaw\Documents\GitHub\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE4056-4F84-4EA7-AA30-D55788D48D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C392764-F835-4753-97F9-92F0076A3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15460" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>After the Player gets a certain distance from an aggroed enemy, the enemy stops pursuing them.</t>
   </si>
   <si>
-    <t>A carrot growing from the ground that the Player can press 'E' on to consume, giving them 1 heart.</t>
-  </si>
-  <si>
     <t>Slingshot Weapon</t>
   </si>
   <si>
@@ -407,7 +404,10 @@
     <t>Layout for obstacles and enemies in level 3. Major scene elements included in the layout as well.</t>
   </si>
   <si>
-    <t>Complete 80%</t>
+    <t>Incomplete/50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carrot that drops from enemies and can be found in the overworld. </t>
   </si>
 </sst>
 </file>
@@ -575,10 +575,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -939,35 +939,35 @@
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="85.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="85.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1462,15 +1462,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1485,15 +1485,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1508,15 +1508,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1531,15 +1531,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1554,15 +1554,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1577,15 +1577,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1600,15 +1600,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
         <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1623,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1646,10 +1646,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1668,16 +1668,16 @@
       <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
@@ -1718,15 +1718,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
@@ -1737,11 +1737,11 @@
       <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
@@ -1760,11 +1760,11 @@
       <c r="G37" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
@@ -1783,11 +1783,11 @@
       <c r="G38" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1806,11 +1806,11 @@
       <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -1829,11 +1829,11 @@
       <c r="G40" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H40" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
         <v>39</v>
       </c>
@@ -1852,11 +1852,11 @@
       <c r="G41" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H41" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
         <v>39</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="9" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
         <v>39</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
@@ -1921,11 +1921,11 @@
       <c r="G44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
@@ -1948,15 +1948,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
         <v>60</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
       </c>
       <c r="E46" t="s">
         <v>42</v>
@@ -1971,15 +1971,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
         <v>42</v>
@@ -1994,15 +1994,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
         <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
       </c>
       <c r="E48" t="s">
         <v>42</v>
@@ -2014,18 +2014,18 @@
         <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
         <v>65</v>
-      </c>
-      <c r="D49" t="s">
-        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
@@ -2040,15 +2040,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
         <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
@@ -2063,18 +2063,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
         <v>67</v>
       </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
         <v>42</v>
@@ -2089,15 +2089,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
         <v>42</v>
@@ -2112,15 +2112,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
         <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>42</v>
@@ -2135,15 +2135,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
         <v>105</v>
-      </c>
-      <c r="D55" t="s">
-        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -2158,15 +2158,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
         <v>107</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>42</v>
@@ -2181,15 +2181,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
         <v>111</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
@@ -2204,15 +2204,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
@@ -2227,15 +2227,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
@@ -2250,15 +2250,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
         <v>42</v>
@@ -2273,15 +2273,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
         <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
@@ -2296,15 +2296,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
         <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
       </c>
       <c r="E62" t="s">
         <v>42</v>
@@ -2319,15 +2319,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
         <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>83</v>
       </c>
       <c r="E63" t="s">
         <v>42</v>
@@ -2342,18 +2342,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
         <v>113</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>114</v>
-      </c>
-      <c r="D65" t="s">
-        <v>115</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -2361,19 +2361,19 @@
       <c r="G65" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
         <v>116</v>
-      </c>
-      <c r="D66" t="s">
-        <v>117</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2385,15 +2385,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -2405,15 +2405,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
       <c r="H69" s="2"/>
     </row>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FroggyChainsaw\Documents\GitHub\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C392764-F835-4753-97F9-92F0076A3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48322ADA-8FC0-4530-832C-D91092C2AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15460" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="124">
   <si>
     <t>Asset</t>
   </si>
@@ -201,10 +201,6 @@
 box spawns.</t>
   </si>
   <si>
-    <t>Once the dialogue box spawns, text will display on it, and the Player can click or press 'E' to advance 
-the dialogue. 'Esc' exits the dialogue.</t>
-  </si>
-  <si>
     <t>While talking to an NPC, the Player can not fire their gun or move. They are invulnerable to attack.</t>
   </si>
   <si>
@@ -408,6 +404,13 @@
   </si>
   <si>
     <t xml:space="preserve">A carrot that drops from enemies and can be found in the overworld. </t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Once the dialogue box spawns, text will display on it, and the Player can click or press 'E' to advance 
+the dialogue. 'Esc' exits the dialogue.(I changed Esc to spacebar, might change it back.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -576,6 +579,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,7 +943,7 @@
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,15 +961,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -1467,10 +1471,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1490,10 +1494,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1513,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1536,10 +1540,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1559,10 +1563,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1582,10 +1586,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1605,10 +1609,10 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
         <v>93</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1631,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1677,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1723,10 +1727,10 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
@@ -1818,7 +1822,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -1864,7 +1868,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
         <v>42</v>
@@ -1875,8 +1879,8 @@
       <c r="G42" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>17</v>
+      <c r="H42" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
@@ -1887,7 +1891,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
@@ -1898,8 +1902,8 @@
       <c r="G43" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>17</v>
+      <c r="H43" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
@@ -1907,10 +1911,10 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
@@ -1930,10 +1934,10 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
         <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
       </c>
       <c r="E45" t="s">
         <v>42</v>
@@ -1953,10 +1957,10 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
-      </c>
-      <c r="D46" t="s">
-        <v>60</v>
       </c>
       <c r="E46" t="s">
         <v>42</v>
@@ -1967,8 +1971,8 @@
       <c r="G46" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>17</v>
+      <c r="H46" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
@@ -1976,10 +1980,10 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>42</v>
@@ -1990,8 +1994,8 @@
       <c r="G47" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>17</v>
+      <c r="H47" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
@@ -1999,10 +2003,10 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
         <v>62</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
       </c>
       <c r="E48" t="s">
         <v>42</v>
@@ -2014,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
@@ -2022,10 +2026,10 @@
         <v>39</v>
       </c>
       <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
         <v>64</v>
-      </c>
-      <c r="D49" t="s">
-        <v>65</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
@@ -2036,8 +2040,8 @@
       <c r="G49" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>17</v>
+      <c r="H49" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
@@ -2045,10 +2049,10 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
         <v>97</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
@@ -2068,13 +2072,13 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
         <v>66</v>
       </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
         <v>42</v>
@@ -2091,13 +2095,13 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
         <v>42</v>
@@ -2114,13 +2118,13 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
         <v>108</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>42</v>
@@ -2137,13 +2141,13 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
         <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -2160,13 +2164,13 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
         <v>106</v>
-      </c>
-      <c r="D56" t="s">
-        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>42</v>
@@ -2183,13 +2187,13 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
         <v>110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
@@ -2206,13 +2210,13 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
@@ -2229,13 +2233,13 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
@@ -2252,13 +2256,13 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
         <v>42</v>
@@ -2275,13 +2279,13 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
         <v>77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>78</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
@@ -2298,13 +2302,13 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
         <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
       </c>
       <c r="E62" t="s">
         <v>42</v>
@@ -2321,13 +2325,13 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
         <v>81</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
       </c>
       <c r="E63" t="s">
         <v>42</v>
@@ -2347,13 +2351,13 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
         <v>112</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>113</v>
-      </c>
-      <c r="D65" t="s">
-        <v>114</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -2367,13 +2371,13 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
         <v>115</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2387,13 +2391,13 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -2407,13 +2411,13 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FroggyChainsaw\Documents\GitHub\DarkRoot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48322ADA-8FC0-4530-832C-D91092C2AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47481B68-5211-487E-971A-C034709430F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="134">
   <si>
     <t>Asset</t>
   </si>
@@ -400,17 +400,48 @@
     <t>Layout for obstacles and enemies in level 3. Major scene elements included in the layout as well.</t>
   </si>
   <si>
-    <t>Incomplete/50%</t>
-  </si>
-  <si>
     <t xml:space="preserve">A carrot that drops from enemies and can be found in the overworld. </t>
-  </si>
-  <si>
-    <t>Cut</t>
   </si>
   <si>
     <t>Once the dialogue box spawns, text will display on it, and the Player can click or press 'E' to advance 
 the dialogue. 'Esc' exits the dialogue.(I changed Esc to spacebar, might change it back.</t>
+  </si>
+  <si>
+    <t>ON HOLD</t>
+  </si>
+  <si>
+    <t>Incomplete / 99%</t>
+  </si>
+  <si>
+    <t>Incomplete / 50%</t>
+  </si>
+  <si>
+    <t>While talking to an NPC, the NPC's character art displays beside the text box.</t>
+  </si>
+  <si>
+    <t>Sword Attack Speed</t>
+  </si>
+  <si>
+    <t>Implement a limited sword swing rate (ideally adjustable per weapon) so the sword can not be swung as 
+fast as the player can click.</t>
+  </si>
+  <si>
+    <t>Hyacinth dialogue</t>
+  </si>
+  <si>
+    <t>Write dialogue for Hyacinth to say in the turorial level.</t>
+  </si>
+  <si>
+    <t>Implement Art</t>
+  </si>
+  <si>
+    <t>Implement enemy animations for Bullet Bunny and Sllime.</t>
+  </si>
+  <si>
+    <t>Mountain Art</t>
+  </si>
+  <si>
+    <t>Art for mountains that will form the impassable barriers to levels.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H69" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:H69" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}" name="Table1" displayName="Table1" ref="B3:H73" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:H73" xr:uid="{CC7CCED1-F0DA-4309-901B-2344FEB332E5}"/>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{AF7E0E7C-2284-413F-AB2C-E63BCFCC2C85}" name="Department"/>
     <tableColumn id="1" xr3:uid="{4F89ED6B-F192-4EF7-BB55-9FBCF02369DF}" name="Asset"/>
@@ -940,27 +977,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
-  <dimension ref="B2:J69"/>
+  <dimension ref="B2:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="85.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="85.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="11" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1007,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1094,11 +1130,14 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1117,11 +1156,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1140,11 +1179,11 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1163,11 +1202,11 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1186,11 +1225,11 @@
       <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H11" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1209,11 +1248,11 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1232,11 +1271,11 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1255,11 +1294,11 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H14" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1278,11 +1317,11 @@
       <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H15" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1301,11 +1340,11 @@
       <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1324,11 +1363,11 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1347,11 +1386,11 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1370,11 +1409,11 @@
       <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1393,11 +1432,11 @@
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1416,11 +1455,11 @@
       <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1439,11 +1478,11 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1462,11 +1501,11 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1485,11 +1524,11 @@
       <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1508,11 +1547,11 @@
       <c r="G25" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1531,11 +1570,11 @@
       <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1554,11 +1593,11 @@
       <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1577,11 +1616,11 @@
       <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
@@ -1600,11 +1639,11 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
@@ -1627,7 +1666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
@@ -1646,143 +1685,143 @@
       <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="9" t="s">
-        <v>39</v>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
         <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H37" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -1791,21 +1830,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -1814,15 +1853,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" t="s">
-        <v>100</v>
+      <c r="D40" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -1837,21 +1876,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
       </c>
       <c r="E41" t="s">
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
         <v>21</v>
@@ -1860,21 +1899,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>123</v>
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
       </c>
       <c r="E42" t="s">
         <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
         <v>21</v>
@@ -1883,15 +1922,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
@@ -1906,21 +1945,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>21</v>
@@ -1929,38 +1968,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E45" t="s">
         <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>42</v>
@@ -1971,19 +2010,19 @@
       <c r="G46" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H46" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
         <v>42</v>
@@ -1992,50 +2031,50 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
         <v>21</v>
@@ -2044,70 +2083,90 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
         <v>96</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>97</v>
       </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="10" t="s">
-        <v>65</v>
+      <c r="H52" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E53" t="s">
         <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -2116,21 +2175,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="10" t="s">
-        <v>65</v>
+    <row r="54" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E54" t="s">
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
         <v>21</v>
@@ -2139,44 +2198,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
         <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -2185,21 +2224,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
@@ -2208,44 +2247,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
         <v>21</v>
@@ -2254,15 +2293,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>42</v>
@@ -2271,27 +2310,27 @@
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
         <v>21</v>
@@ -2300,138 +2339,246 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
         <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
         <v>80</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D67" t="s">
         <v>81</v>
       </c>
-      <c r="E63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
         <v>14</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G67" t="s">
         <v>29</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>113</v>
-      </c>
-      <c r="F65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="12" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D72" t="s">
         <v>119</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F72" t="s">
         <v>12</v>
       </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="2" t="s">
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="12"/>
-      <c r="H69" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DarkRoot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47481B68-5211-487E-971A-C034709430F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0F60B-6096-405A-A638-B2523A604656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83EF7ABD-5B94-4EE7-81F2-F128B123CE05}"/>
   </bookViews>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C743A33-A4BC-416E-821B-F9208C97A8E0}">
   <dimension ref="B2:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,8 +1547,8 @@
       <c r="G25" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>20</v>
+      <c r="H25" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1570,8 +1570,8 @@
       <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
+      <c r="H26" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1780,8 +1780,8 @@
       <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>19</v>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
